--- a/dpgmm_alpha1.87_spherical_transition_uptake_pvalues.xlsx
+++ b/dpgmm_alpha1.87_spherical_transition_uptake_pvalues.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="dpgmm_alpha1.87_spherical_trans" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,755 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="310">
+  <si>
+    <t>CTX_LH_POSTERIORCINGULATE: 0.0 (0.722726679065, 1.04852457544)</t>
+  </si>
+  <si>
+    <t>LEFT_PUTAMEN: 0.0316558430667 (0.447278514666, 0.580841854091)</t>
+  </si>
+  <si>
+    <t>CTX_LH_ROSTRALANTERIORCINGULATE: 0.00516678730703 (0.730572072485, 0.958714732427)</t>
+  </si>
+  <si>
+    <t>CTX_RH_BANKSSTS: 0.0 (0.723205663, 0.996246366299)</t>
+  </si>
+  <si>
+    <t>CTX_RH_PRECUNEUS: 0.0 (0.699813415534, 1.15012128687)</t>
+  </si>
+  <si>
+    <t>LEFT_AMYGDALA: 0.0 (0.357498970935, 0.560507442908)</t>
+  </si>
+  <si>
+    <t>CTX_LH_INFERIORTEMPORAL: 0.0 (0.646744239053, 0.985118087399)</t>
+  </si>
+  <si>
+    <t>CTX_LH_INSULA: 0.00303544449592 (0.529527128409, 0.680288392603)</t>
+  </si>
+  <si>
+    <t>CTX_LH_SUPERIORPARIETAL: 0.0161894773099 (0.813898778615, 1.10671252223)</t>
+  </si>
+  <si>
+    <t>CTX_LH_MIDDLETEMPORAL: 0.0 (0.669961310852, 0.951911162901)</t>
+  </si>
+  <si>
+    <t>CTX_LH_PARAHIPPOCAMPAL: 0.00303544449592 (0.388330686185, 0.684766394792)</t>
+  </si>
+  <si>
+    <t>CTX_LH_PRECUNEUS: 0.0 (0.678098363906, 1.20333171673)</t>
+  </si>
+  <si>
+    <t>CTX_LH_FUSIFORM: 0.0 (0.546073751066, 1.00696769109)</t>
+  </si>
+  <si>
+    <t>CTX_LH_BANKSSTS: 0.0 (0.651787346326, 1.13755541694)</t>
+  </si>
+  <si>
+    <t>CTX_LH_PERICALCARINE: 0.00778000743126 (0.470091787636, 0.837699464924)</t>
+  </si>
+  <si>
+    <t>CTX_LH_LINGUAL: 0.0130256676466 (0.540607262721, 0.781184621428)</t>
+  </si>
+  <si>
+    <t>53 vs 55:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PARSORBITALIS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PARSTRIANGULARIS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PERICALCARINE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_POSTCENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_POSTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PRECENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PRECUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_ROSTRALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_SUPERIORFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_SUPERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_SUPERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_SUPRAMARGINAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_TEMPORALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_TRANSVERSETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_UNKNOWN</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_BANKSSTS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_CAUDALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_CAUDALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_CUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_ENTORHINAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_FRONTALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_FUSIFORM</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_INFERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_INFERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_INSULA</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_ISTHMUSCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_LATERALOCCIPITAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_LATERALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_LINGUAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_MEDIALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_MIDDLETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PARACENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PARSORBITALIS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PARSTRIANGULARIS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PERICALCARINE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_POSTCENTRAL</t>
+  </si>
+  <si>
+    <t>CTX_RH_FUSIFORM: 0.00155879940838 (0.574238762782, 0.843086739519)</t>
+  </si>
+  <si>
+    <t>CTX_RH_ISTHMUSCINGULATE: 0.00582321259982 (0.706791851633, 1.02880909339)</t>
+  </si>
+  <si>
+    <t>CTX_LH_SUPRAMARGINAL: 0.0 (0.806289366452, 1.08906991274)</t>
+  </si>
+  <si>
+    <t>LEFT_ACCUMBENS_AREA: 0.0 (0.0360665989308, 0.278995754476)</t>
+  </si>
+  <si>
+    <t>CTX_LH_ISTHMUSCINGULATE: 0.0 (0.694966348323, 1.00022188243)</t>
+  </si>
+  <si>
+    <t>CTX_RH_INFERIORTEMPORAL: 0.00836531840089 (0.657626433362, 0.881805077114)</t>
+  </si>
+  <si>
+    <t>CTX_LH_INFERIORPARIETAL: 0.0 (0.737552927863, 1.09035982743)</t>
+  </si>
+  <si>
+    <t>CTX_RH_MIDDLETEMPORAL: 0.00717449953726 (0.726330352119, 0.92549637622)</t>
+  </si>
+  <si>
+    <t>CTX_LH_TRANSVERSETEMPORAL: 0.0 (0.537194330608, 1.01531931687)</t>
+  </si>
+  <si>
+    <t>CTX_LH_SUPERIORTEMPORAL: 0.0 (0.634823740478, 0.927094594393)</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_VENTRALDC</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_ACCUMBENS_AREA</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_AMYGDALA</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_CAUDATE</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_CEREBELLUM_CORTEX</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_CEREBELLUM_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_CEREBRAL_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_HIPPOCAMPUS</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_PALLIDUM</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_PUTAMEN</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_THALAMUS_PROPER</t>
+  </si>
+  <si>
+    <t>MEAN1_RIGHT_VENTRALDC</t>
+  </si>
+  <si>
+    <t>MEAN2_BRAIN_STEM</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_BANKSSTS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_CAUDALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_CAUDALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_CUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_ENTORHINAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_FRONTALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_FUSIFORM</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_INFERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_INFERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_INSULA</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_ISTHMUSCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_LATERALOCCIPITAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_LATERALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_LINGUAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_MEDIALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_MIDDLETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PARACENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PARSORBITALIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PARSTRIANGULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PERICALCARINE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_POSTCENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_POSTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PRECENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_PRECUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_ROSTRALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>GROUP1</t>
+  </si>
+  <si>
+    <t>GROUP2</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>MEAN1_BRAIN_STEM</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_BANKSSTS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_CAUDALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_CAUDALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_CUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_ENTORHINAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_FRONTALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_FUSIFORM</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_INFERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_INFERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_INSULA</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_ISTHMUSCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_LATERALOCCIPITAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_LATERALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_LINGUAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_MEDIALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_MIDDLETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PARACENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_LH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_MEDIALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_MIDDLETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PARACENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PARSORBITALIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PARSTRIANGULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PERICALCARINE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_POSTCENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_POSTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PRECENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_PRECUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_ROSTRALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_ROSTRALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_SUPERIORFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_SUPERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_SUPERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_SUPRAMARGINAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_TEMPORALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_TRANSVERSETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_UNKNOWN</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_ACCUMBENS_AREA</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_AMYGDALA</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_CAUDATE</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_CEREBELLUM_CORTEX</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_CEREBELLUM_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_CEREBRAL_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_HIPPOCAMPUS</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_PALLIDUM</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_PUTAMEN</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_THALAMUS_PROPER</t>
+  </si>
+  <si>
+    <t>MEAN2_LEFT_VENTRALDC</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_ACCUMBENS_AREA</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_AMYGDALA</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_CAUDATE</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_CEREBELLUM_CORTEX</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_CEREBELLUM_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_CEREBRAL_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN2_RIGHT_HIPPOCAMPUS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_POSTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PRECENTRAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_PRECUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_ROSTRALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_ROSTRALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_SUPERIORFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_SUPERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_SUPERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_SUPRAMARGINAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_TEMPORALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_TRANSVERSETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN1_CTX_RH_UNKNOWN</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_ACCUMBENS_AREA</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_AMYGDALA</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_CAUDATE</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_CEREBELLUM_CORTEX</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_CEREBELLUM_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_CEREBRAL_WHITE_MATTER</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_HIPPOCAMPUS</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_PALLIDUM</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_PUTAMEN</t>
+  </si>
+  <si>
+    <t>MEAN1_LEFT_THALAMUS_PROPER</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PARSORBITALIS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PARSTRIANGULARIS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PERICALCARINE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_POSTCENTRAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_POSTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PRECENTRAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_PRECUNEUS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_ROSTRALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_SUPERIORFRONTAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_SUPERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_SUPERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_SUPRAMARGINAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_TEMPORALPOLE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_TRANSVERSETEMPORAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_LH_UNKNOWN</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_BANKSSTS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_CAUDALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_CAUDALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_CUNEUS</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_ENTORHINAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_FRONTALPOLE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_FUSIFORM</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_INFERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_INFERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_INSULA</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_ISTHMUSCINGULATE</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_LATERALOCCIPITAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_LATERALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_LINGUAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_MEDIALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_MIDDLETEMPORAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_PARACENTRAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_PARAHIPPOCAMPAL</t>
+  </si>
+  <si>
+    <t>PVALUE_CTX_RH_PARSOPERCULARIS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_SUPERIORFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_SUPERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_SUPERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_SUPRAMARGINAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_TEMPORALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_TRANSVERSETEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_LH_UNKNOWN</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_BANKSSTS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_CAUDALANTERIORCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_CAUDALMIDDLEFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_CUNEUS</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_ENTORHINAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_FRONTALPOLE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_FUSIFORM</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_INFERIORPARIETAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_INFERIORTEMPORAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_INSULA</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_ISTHMUSCINGULATE</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_LATERALOCCIPITAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_LATERALORBITOFRONTAL</t>
+  </si>
+  <si>
+    <t>MEAN2_CTX_RH_LINGUAL</t>
+  </si>
   <si>
     <t>PVALUE_CTX_RH_PARSORBITALIS</t>
   </si>
@@ -202,672 +950,6 @@
   </si>
   <si>
     <t>PVALUE_CTX_LH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PARSORBITALIS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PARSTRIANGULARIS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PERICALCARINE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_POSTCENTRAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_POSTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PRECENTRAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_PRECUNEUS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_ROSTRALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_SUPERIORFRONTAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_SUPERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_SUPERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_SUPRAMARGINAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_TEMPORALPOLE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_TRANSVERSETEMPORAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_LH_UNKNOWN</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_BANKSSTS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_CAUDALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_CAUDALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_CUNEUS</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_ENTORHINAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_FRONTALPOLE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_FUSIFORM</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_INFERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_INFERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_INSULA</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_ISTHMUSCINGULATE</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_LATERALOCCIPITAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_LATERALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_LINGUAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_MEDIALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_MIDDLETEMPORAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>PVALUE_CTX_RH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_SUPERIORFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_SUPERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_SUPERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_SUPRAMARGINAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_TEMPORALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_TRANSVERSETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_UNKNOWN</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_BANKSSTS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_CAUDALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_CAUDALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_CUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_ENTORHINAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_FRONTALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_FUSIFORM</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_INFERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_INFERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_INSULA</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_ISTHMUSCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_LATERALOCCIPITAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_LATERALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_LINGUAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_MEDIALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_MIDDLETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PARSORBITALIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PARSTRIANGULARIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PERICALCARINE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_POSTCENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_POSTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PRECENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_PRECUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_ROSTRALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_ROSTRALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_SUPERIORFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_SUPERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_SUPERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_SUPRAMARGINAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_TEMPORALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_TRANSVERSETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_RH_UNKNOWN</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_ACCUMBENS_AREA</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_AMYGDALA</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_CAUDATE</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_CEREBELLUM_CORTEX</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_CEREBELLUM_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_CEREBRAL_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_HIPPOCAMPUS</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_PALLIDUM</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_PUTAMEN</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_THALAMUS_PROPER</t>
-  </si>
-  <si>
-    <t>MEAN2_LEFT_VENTRALDC</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_ACCUMBENS_AREA</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_AMYGDALA</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_CAUDATE</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_CEREBELLUM_CORTEX</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_CEREBELLUM_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_CEREBRAL_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN2_RIGHT_HIPPOCAMPUS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_POSTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PRECENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PRECUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_ROSTRALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_ROSTRALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_SUPERIORFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_SUPERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_SUPERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_SUPRAMARGINAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_TEMPORALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_TRANSVERSETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_UNKNOWN</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_ACCUMBENS_AREA</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_AMYGDALA</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_CAUDATE</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_CEREBELLUM_CORTEX</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_CEREBELLUM_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_CEREBRAL_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_HIPPOCAMPUS</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_PALLIDUM</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_PUTAMEN</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_THALAMUS_PROPER</t>
-  </si>
-  <si>
-    <t>MEAN1_LEFT_VENTRALDC</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_ACCUMBENS_AREA</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_AMYGDALA</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_CAUDATE</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_CEREBELLUM_CORTEX</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_CEREBELLUM_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_CEREBRAL_WHITE_MATTER</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_HIPPOCAMPUS</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_PALLIDUM</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_PUTAMEN</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_THALAMUS_PROPER</t>
-  </si>
-  <si>
-    <t>MEAN1_RIGHT_VENTRALDC</t>
-  </si>
-  <si>
-    <t>MEAN2_BRAIN_STEM</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_BANKSSTS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_CAUDALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_CAUDALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_CUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_ENTORHINAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_FRONTALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_FUSIFORM</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_INFERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_INFERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_INSULA</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_ISTHMUSCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_LATERALOCCIPITAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_LATERALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_LINGUAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_MEDIALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_MIDDLETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PARSORBITALIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PARSTRIANGULARIS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PERICALCARINE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_POSTCENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_POSTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PRECENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_PRECUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN2_CTX_LH_ROSTRALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>GROUP1</t>
-  </si>
-  <si>
-    <t>GROUP2</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>MEAN1_BRAIN_STEM</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_BANKSSTS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_CAUDALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_CAUDALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_CUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_ENTORHINAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_FRONTALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_FUSIFORM</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_INFERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_INFERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_INSULA</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_ISTHMUSCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_LATERALOCCIPITAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_LATERALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_LINGUAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_MEDIALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_MIDDLETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PARSORBITALIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PARSTRIANGULARIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PERICALCARINE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_POSTCENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_POSTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PRECENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_PRECUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_ROSTRALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_ROSTRALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_SUPERIORFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_SUPERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_SUPERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_SUPRAMARGINAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_TEMPORALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_TRANSVERSETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_LH_UNKNOWN</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_BANKSSTS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_CAUDALANTERIORCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_CAUDALMIDDLEFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_CUNEUS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_ENTORHINAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_FRONTALPOLE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_FUSIFORM</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_INFERIORPARIETAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_INFERIORTEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_INSULA</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_ISTHMUSCINGULATE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_LATERALOCCIPITAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_LATERALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_LINGUAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_MEDIALORBITOFRONTAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_MIDDLETEMPORAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PARACENTRAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PARAHIPPOCAMPAL</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PARSOPERCULARIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PARSORBITALIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PARSTRIANGULARIS</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_PERICALCARINE</t>
-  </si>
-  <si>
-    <t>MEAN1_CTX_RH_POSTCENTRAL</t>
   </si>
 </sst>
 </file>
@@ -880,8 +962,13 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -890,12 +977,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -910,9 +1003,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,858 +1340,863 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:JV16"/>
+  <dimension ref="A1:JV76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U34" sqref="U34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:282">
-      <c r="A1" t="s">
+    <row r="1" spans="1:282" s="4" customFormat="1" ht="96" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="DM1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="FD1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="FE1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="FF1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="FG1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="FH1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="FI1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="FJ1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="FK1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="FL1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="FM1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="FN1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="FO1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="FP1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="FQ1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="FR1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="FS1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="FT1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="FU1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="FV1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="FW1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="FX1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="FY1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="FZ1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="GA1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="GB1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="GC1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="GD1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="GE1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="GF1" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="GG1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="GH1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="GI1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="GJ1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="GK1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="GL1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="GM1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="GN1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="GO1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="GP1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="GQ1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="GR1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="GS1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="GT1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="GU1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="GV1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="GW1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="GX1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="GY1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="GZ1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="HA1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="HB1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="HC1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="HD1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="HE1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="HF1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="HG1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="HH1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="HI1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="HJ1" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="HK1" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="HL1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="HM1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="HN1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="HO1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="HP1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="HQ1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="HR1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="HS1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="HT1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="HU1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="HV1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="HW1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="HX1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="HY1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="HZ1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="IA1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="IB1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="IC1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="ID1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="IE1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
+      <c r="IF1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+      <c r="IG1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D1" t="s">
+      <c r="IH1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E1" t="s">
+      <c r="II1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
+      <c r="IJ1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" t="s">
-        <v>241</v>
-      </c>
-      <c r="V1" t="s">
-        <v>242</v>
-      </c>
-      <c r="W1" t="s">
-        <v>243</v>
-      </c>
-      <c r="X1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="IK1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="IL1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="IM1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="IN1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="IO1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="IP1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="IQ1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="IR1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="IS1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="IT1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="IU1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="IV1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="IW1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="IX1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="IY1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="IZ1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="JA1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="JB1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="JC1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="JD1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="JE1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="JF1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="JG1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="JH1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="JI1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="JJ1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="JK1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="JL1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="JM1" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="JN1" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="JO1" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="JP1" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="JQ1" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="JR1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="BK1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>191</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>206</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>207</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>212</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>213</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>214</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>215</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>216</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>217</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>218</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>219</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>220</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>107</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>114</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>117</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>118</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>121</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>122</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>123</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>127</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>140</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>141</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>142</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>147</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>148</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>149</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>39</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>40</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>41</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>42</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>43</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>44</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>45</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>46</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>47</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>48</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>49</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>50</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>51</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>53</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>54</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>55</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>56</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>57</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>58</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>59</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>60</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>62</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>63</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>64</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>65</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>66</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>67</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>68</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>69</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>70</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>71</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>72</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>73</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>74</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>75</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>76</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>77</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>79</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>80</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>81</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>82</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>83</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>84</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>85</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>86</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>88</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>89</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>90</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>91</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>92</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>93</v>
-      </c>
-      <c r="IG1" t="s">
-        <v>94</v>
-      </c>
-      <c r="IH1" t="s">
-        <v>95</v>
-      </c>
-      <c r="II1" t="s">
-        <v>96</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="IK1" t="s">
-        <v>0</v>
-      </c>
-      <c r="IL1" t="s">
-        <v>1</v>
-      </c>
-      <c r="IM1" t="s">
-        <v>2</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>3</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>4</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>5</v>
-      </c>
-      <c r="IQ1" t="s">
-        <v>6</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>7</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>8</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>9</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>10</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>11</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>12</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>13</v>
-      </c>
-      <c r="IY1" t="s">
-        <v>14</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>15</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>16</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>17</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>18</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>20</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>21</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>22</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>23</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>24</v>
-      </c>
-      <c r="JJ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="JK1" t="s">
-        <v>26</v>
-      </c>
-      <c r="JL1" t="s">
-        <v>27</v>
-      </c>
-      <c r="JM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="JN1" t="s">
-        <v>29</v>
-      </c>
-      <c r="JO1" t="s">
-        <v>30</v>
-      </c>
-      <c r="JP1" t="s">
-        <v>31</v>
-      </c>
-      <c r="JQ1" t="s">
-        <v>32</v>
-      </c>
-      <c r="JR1" t="s">
-        <v>33</v>
-      </c>
-      <c r="JS1" t="s">
-        <v>34</v>
-      </c>
-      <c r="JT1" t="s">
-        <v>35</v>
-      </c>
-      <c r="JU1" t="s">
-        <v>36</v>
-      </c>
-      <c r="JV1" t="s">
-        <v>37</v>
+      <c r="JS1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="JT1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="JU1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="JV1" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:282">
@@ -2104,7 +2207,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D2">
         <v>1.14325656255</v>
@@ -2952,7 +3055,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>1.0652779995799999</v>
@@ -3800,7 +3903,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D4">
         <v>1.0656610443200001</v>
@@ -4640,851 +4743,851 @@
         <v>3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:282">
-      <c r="A5">
+    <row r="5" spans="1:282" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>53</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.98722509387299995</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1.13935828895</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>1.07699558079</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>1.0141741743999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.82994414709800002</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.59574566241299998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1.0478775444599999</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>1.0080028728999999</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>1.0853565464299999</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>0.98561060439399995</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>0.68107606278199995</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>1.0037634206199999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>1.00000930667</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0.89650091189600001</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>0.78051896325500003</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>0.90270341121200004</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>0.95442060659000005</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>0.98227797702200004</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <v>0.69000834953900003</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>0.96421526013100001</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>1.0189876250100001</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>0.93488143579100003</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>0.84028821264099995</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="2">
         <v>1.0389054659600001</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <v>1.0457875429900001</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="2">
         <v>0.86847555034400004</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="2">
         <v>1.19909113262</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="2">
         <v>0.95848214496700002</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>1.0035008051400001</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="2">
         <v>0.91189093221700002</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="2">
         <v>1.1040191047700001</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="2">
         <v>0.92521136967200002</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="2">
         <v>1.0903756395799999</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="2">
         <v>0.75640801867999996</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="2">
         <v>1.01721756603</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="2">
         <v>0.87927989224500003</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="2">
         <v>0.99432751357500004</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="2">
         <v>0.87424770922999995</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="2">
         <v>0.92206701931099999</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="2">
         <v>0.73634605232499994</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="2">
         <v>0.57923274454399998</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="2">
         <v>0.85921639655299997</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="2">
         <v>0.844876493763</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="2">
         <v>1.0249746281200001</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="2">
         <v>0.88112459003999999</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="2">
         <v>0.61826546032200003</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="2">
         <v>1.0314761782499999</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="2">
         <v>0.90597159227599999</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="2">
         <v>0.88761696210200003</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="2">
         <v>0.67795712471900005</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="2">
         <v>0.82087949947600003</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="2">
         <v>0.92592884912600004</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="2">
         <v>0.92812371089400003</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="2">
         <v>0.68556687655500004</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="2">
         <v>0.94981973602100001</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="2">
         <v>0.94613395403800005</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="2">
         <v>0.99106951707299995</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="2">
         <v>0.68165701246699995</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="2">
         <v>0.94711900309899999</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="2">
         <v>0.94446220328599995</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="2">
         <v>0.80719726008299997</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="2">
         <v>1.1563086166600001</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="2">
         <v>0.81450823104000003</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="2">
         <v>0.94171910193300001</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="2">
         <v>0.83900540522699996</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="2">
         <v>1.05593726428</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="2">
         <v>0.79121361667599999</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="2">
         <v>0.99013472011899994</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="2">
         <v>0.64888488029799996</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="2">
         <v>0.79069068836199996</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="2">
         <v>0.93361405951499998</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="2">
         <v>0.27569841305199999</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="2">
         <v>0.56078430440600002</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="2">
         <v>0.62819229810300004</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="2">
         <v>0.54328993993700003</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="2">
         <v>1.0765559306500001</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="2">
         <v>1.10928020064</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="2">
         <v>0.58678877765600002</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="2">
         <v>0.702161311382</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="2">
         <v>0.57862319481500002</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="2">
         <v>0.76796618452400001</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="2">
         <v>0.99627303488800001</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="2">
         <v>0.359901295683</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="2">
         <v>0.473399555365</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" s="2">
         <v>0.47621118389700001</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" s="2">
         <v>0.54943270660700005</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" s="2">
         <v>1.0535269068499999</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" s="2">
         <v>1.0928706266499999</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" s="2">
         <v>0.55318086955800005</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" s="2">
         <v>0.80195510474599996</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" s="2">
         <v>0.512458697904</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" s="2">
         <v>0.676404004442</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" s="2">
         <v>0.95439599006999998</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" s="2">
         <v>0.97115687439200005</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" s="2">
         <v>0.65167343802800004</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" s="2">
         <v>0.80132908944799996</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" s="2">
         <v>0.86163282220500004</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" s="2">
         <v>0.66444098511799998</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" s="2">
         <v>0.485393457764</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" s="2">
         <v>0.97631179117900002</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" s="2">
         <v>0.54444128761999999</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" s="2">
         <v>0.73703081764699996</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" s="2">
         <v>0.64791918148399996</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" s="2">
         <v>0.53002392609299998</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" s="2">
         <v>0.69336438501800002</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" s="2">
         <v>0.86187485406599995</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" s="2">
         <v>0.77147723027500004</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" s="2">
         <v>0.54331907726100004</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" s="2">
         <v>0.62179090275100002</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" s="2">
         <v>0.66844933860900002</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" s="2">
         <v>0.996732370082</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" s="2">
         <v>0.38663608804100003</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" s="2">
         <v>0.92097817163600004</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" s="2">
         <v>1.0743085369700001</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" s="2">
         <v>1.05291898149</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" s="2">
         <v>0.47183997042100001</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" s="2">
         <v>1.0107950186900001</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" s="2">
         <v>0.72320770335499995</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" s="2">
         <v>0.93756843432900006</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" s="2">
         <v>0.68002740881699997</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" s="2">
         <v>0.731360157934</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" s="2">
         <v>0.89623919315400002</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" s="2">
         <v>0.78083019281900001</v>
       </c>
-      <c r="DW5">
+      <c r="DW5" s="2">
         <v>0.81150570734799998</v>
       </c>
-      <c r="DX5">
+      <c r="DX5" s="2">
         <v>0.63440762452900001</v>
       </c>
-      <c r="DY5">
+      <c r="DY5" s="2">
         <v>0.806484979514</v>
       </c>
-      <c r="DZ5">
+      <c r="DZ5" s="2">
         <v>0.649125436901</v>
       </c>
-      <c r="EA5">
+      <c r="EA5" s="2">
         <v>0.53653543405799997</v>
       </c>
-      <c r="EB5">
+      <c r="EB5" s="2">
         <v>0.79198852250100005</v>
       </c>
-      <c r="EC5">
+      <c r="EC5" s="2">
         <v>0.72237087504300002</v>
       </c>
-      <c r="ED5">
+      <c r="ED5" s="2">
         <v>0.80028983189799996</v>
       </c>
-      <c r="EE5">
+      <c r="EE5" s="2">
         <v>0.94569229679199995</v>
       </c>
-      <c r="EF5">
+      <c r="EF5" s="2">
         <v>0.70604663730399997</v>
       </c>
-      <c r="EG5">
+      <c r="EG5" s="2">
         <v>0.536158539451</v>
       </c>
-      <c r="EH5">
+      <c r="EH5" s="2">
         <v>0.91095152475999996</v>
       </c>
-      <c r="EI5">
+      <c r="EI5" s="2">
         <v>0.57493725794100004</v>
       </c>
-      <c r="EJ5">
+      <c r="EJ5" s="2">
         <v>0.83678386240299996</v>
       </c>
-      <c r="EK5">
+      <c r="EK5" s="2">
         <v>0.65494020984599999</v>
       </c>
-      <c r="EL5">
+      <c r="EL5" s="2">
         <v>0.51407181708000005</v>
       </c>
-      <c r="EM5">
+      <c r="EM5" s="2">
         <v>0.70501909790200001</v>
       </c>
-      <c r="EN5">
+      <c r="EN5" s="2">
         <v>0.94942905500399999</v>
       </c>
-      <c r="EO5">
+      <c r="EO5" s="2">
         <v>0.81514377795600002</v>
       </c>
-      <c r="EP5">
+      <c r="EP5" s="2">
         <v>0.57822538808000001</v>
       </c>
-      <c r="EQ5">
+      <c r="EQ5" s="2">
         <v>0.707541900966</v>
       </c>
-      <c r="ER5">
+      <c r="ER5" s="2">
         <v>0.72709947561499999</v>
       </c>
-      <c r="ES5">
+      <c r="ES5" s="2">
         <v>0.96467093566399997</v>
       </c>
-      <c r="ET5">
+      <c r="ET5" s="2">
         <v>0.48778878026099998</v>
       </c>
-      <c r="EU5">
+      <c r="EU5" s="2">
         <v>0.95977281400799996</v>
       </c>
-      <c r="EV5">
+      <c r="EV5" s="2">
         <v>1.00869441911</v>
       </c>
-      <c r="EW5">
+      <c r="EW5" s="2">
         <v>1.1302092516</v>
       </c>
-      <c r="EX5">
+      <c r="EX5" s="2">
         <v>0.49845180650900001</v>
       </c>
-      <c r="EY5">
+      <c r="EY5" s="2">
         <v>1.1093836592499999</v>
       </c>
-      <c r="EZ5">
+      <c r="EZ5" s="2">
         <v>0.74846187481799997</v>
       </c>
-      <c r="FA5">
+      <c r="FA5" s="2">
         <v>1.02856467899</v>
       </c>
-      <c r="FB5">
+      <c r="FB5" s="2">
         <v>0.699846956046</v>
       </c>
-      <c r="FC5">
+      <c r="FC5" s="2">
         <v>0.78218800118200005</v>
       </c>
-      <c r="FD5">
+      <c r="FD5" s="2">
         <v>1.0051019754699999</v>
       </c>
-      <c r="FE5">
+      <c r="FE5" s="2">
         <v>0.82304710649400004</v>
       </c>
-      <c r="FF5">
+      <c r="FF5" s="2">
         <v>0.86364290829599999</v>
       </c>
-      <c r="FG5">
+      <c r="FG5" s="2">
         <v>0.72834622525100001</v>
       </c>
-      <c r="FH5">
+      <c r="FH5" s="2">
         <v>0.92488334218000001</v>
       </c>
-      <c r="FI5">
+      <c r="FI5" s="2">
         <v>0.69617962306100001</v>
       </c>
-      <c r="FJ5">
+      <c r="FJ5" s="2">
         <v>0.658919677441</v>
       </c>
-      <c r="FK5">
+      <c r="FK5" s="2">
         <v>0.80295494246300003</v>
       </c>
-      <c r="FL5">
+      <c r="FL5" s="2">
         <v>3.5388575682499999E-2</v>
       </c>
-      <c r="FM5">
+      <c r="FM5" s="2">
         <v>0.35643906963299998</v>
       </c>
-      <c r="FN5">
+      <c r="FN5" s="2">
         <v>0.53773961995700004</v>
       </c>
-      <c r="FO5">
+      <c r="FO5" s="2">
         <v>0.53887389495299998</v>
       </c>
-      <c r="FP5">
+      <c r="FP5" s="2">
         <v>0.96955635886299996</v>
       </c>
-      <c r="FQ5">
+      <c r="FQ5" s="2">
         <v>1.1089299964599999</v>
       </c>
-      <c r="FR5">
+      <c r="FR5" s="2">
         <v>0.54915825866099999</v>
       </c>
-      <c r="FS5">
+      <c r="FS5" s="2">
         <v>0.71738342507700004</v>
       </c>
-      <c r="FT5">
+      <c r="FT5" s="2">
         <v>0.44715947452900001</v>
       </c>
-      <c r="FU5">
+      <c r="FU5" s="2">
         <v>0.69428848247899999</v>
       </c>
-      <c r="FV5">
+      <c r="FV5" s="2">
         <v>0.96251536422499995</v>
       </c>
-      <c r="FW5">
+      <c r="FW5" s="2">
         <v>0.14993612747999999</v>
       </c>
-      <c r="FX5">
+      <c r="FX5" s="2">
         <v>0.37519768879199999</v>
       </c>
-      <c r="FY5">
+      <c r="FY5" s="2">
         <v>0.567655078167</v>
       </c>
-      <c r="FZ5">
+      <c r="FZ5" s="2">
         <v>0.55916711696999999</v>
       </c>
-      <c r="GA5">
+      <c r="GA5" s="2">
         <v>0.977281462918</v>
       </c>
-      <c r="GB5">
+      <c r="GB5" s="2">
         <v>1.0937690316799999</v>
       </c>
-      <c r="GC5">
+      <c r="GC5" s="2">
         <v>0.58061259810300003</v>
       </c>
-      <c r="GD5">
+      <c r="GD5" s="2">
         <v>0.810445768422</v>
       </c>
-      <c r="GE5">
+      <c r="GE5" s="2">
         <v>0.445839959851</v>
       </c>
-      <c r="GF5">
+      <c r="GF5" s="2">
         <v>0.668416667076</v>
       </c>
-      <c r="GG5">
+      <c r="GG5" s="2">
         <v>0.90337001469300005</v>
       </c>
-      <c r="GH5">
+      <c r="GH5" s="2">
         <v>0.64310999999999996</v>
       </c>
-      <c r="GI5">
-        <v>0</v>
-      </c>
-      <c r="GJ5">
+      <c r="GI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GJ5" s="2">
         <v>3.0300000000000001E-3</v>
       </c>
-      <c r="GK5">
+      <c r="GK5" s="2">
         <v>4.0680000000000001E-2</v>
       </c>
-      <c r="GL5">
+      <c r="GL5" s="2">
         <v>8.6529999999999996E-2</v>
       </c>
-      <c r="GM5">
+      <c r="GM5" s="2">
         <v>0.13808000000000001</v>
       </c>
-      <c r="GN5">
+      <c r="GN5" s="2">
         <v>0.48548999999999998</v>
       </c>
-      <c r="GO5">
-        <v>0</v>
-      </c>
-      <c r="GP5">
-        <v>0</v>
-      </c>
-      <c r="GQ5">
-        <v>0</v>
-      </c>
-      <c r="GR5">
+      <c r="GO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="GS5" s="1">
+      <c r="GS5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="GT5">
+      <c r="GT5" s="2">
         <v>8.7569999999999995E-2</v>
       </c>
-      <c r="GU5">
+      <c r="GU5" s="2">
         <v>4.9369999999999997E-2</v>
       </c>
-      <c r="GV5">
+      <c r="GV5" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="GW5" s="1">
+      <c r="GW5" s="3">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="GX5">
-        <v>0</v>
-      </c>
-      <c r="GY5">
+      <c r="GX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="GY5" s="2">
         <v>0.80237000000000003</v>
       </c>
-      <c r="GZ5" s="1">
+      <c r="GZ5" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="HA5">
+      <c r="HA5" s="2">
         <v>0.47998000000000002</v>
       </c>
-      <c r="HB5">
+      <c r="HB5" s="2">
         <v>0.28887000000000002</v>
       </c>
-      <c r="HC5">
+      <c r="HC5" s="2">
         <v>5.9450000000000003E-2</v>
       </c>
-      <c r="HD5">
+      <c r="HD5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="HE5">
+      <c r="HE5" s="2">
         <v>0.73370999999999997</v>
       </c>
-      <c r="HF5">
-        <v>0</v>
-      </c>
-      <c r="HG5">
+      <c r="HF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HG5" s="2">
         <v>0.25488</v>
       </c>
-      <c r="HH5">
-        <v>0</v>
-      </c>
-      <c r="HI5">
+      <c r="HH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HI5" s="2">
         <v>1E-4</v>
       </c>
-      <c r="HJ5">
+      <c r="HJ5" s="2">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="HK5">
+      <c r="HK5" s="2">
         <v>2.4230000000000002E-2</v>
       </c>
-      <c r="HL5">
+      <c r="HL5" s="2">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="HM5" s="1">
+      <c r="HM5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="HN5">
-        <v>0</v>
-      </c>
-      <c r="HO5">
+      <c r="HN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HO5" s="2">
         <v>0.15545</v>
       </c>
-      <c r="HP5">
-        <v>0</v>
-      </c>
-      <c r="HQ5">
+      <c r="HP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HQ5" s="2">
         <v>0.59782000000000002</v>
       </c>
-      <c r="HR5">
-        <v>0</v>
-      </c>
-      <c r="HS5">
+      <c r="HR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="HS5" s="2">
         <v>0.24673</v>
       </c>
-      <c r="HT5">
+      <c r="HT5" s="2">
         <v>0.78334999999999999</v>
       </c>
-      <c r="HU5">
+      <c r="HU5" s="2">
         <v>0.70957000000000003</v>
       </c>
-      <c r="HV5">
+      <c r="HV5" s="2">
         <v>0.48542999999999997</v>
       </c>
-      <c r="HW5">
+      <c r="HW5" s="2">
         <v>0.48975000000000002</v>
       </c>
-      <c r="HX5" s="1">
+      <c r="HX5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="HY5">
+      <c r="HY5" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
-      <c r="HZ5">
+      <c r="HZ5" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="IA5">
+      <c r="IA5" s="2">
         <v>3.3550000000000003E-2</v>
       </c>
-      <c r="IB5" s="1">
+      <c r="IB5" s="3">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="IC5">
+      <c r="IC5" s="2">
         <v>0.55018999999999996</v>
       </c>
-      <c r="ID5">
+      <c r="ID5" s="2">
         <v>0.17827999999999999</v>
       </c>
-      <c r="IE5">
+      <c r="IE5" s="2">
         <v>0.18518000000000001</v>
       </c>
-      <c r="IF5">
+      <c r="IF5" s="2">
         <v>8.2479999999999998E-2</v>
       </c>
-      <c r="IG5">
+      <c r="IG5" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="IH5">
+      <c r="IH5" s="2">
         <v>0.49641999999999997</v>
       </c>
-      <c r="II5">
+      <c r="II5" s="2">
         <v>8.8100000000000001E-3</v>
       </c>
-      <c r="IJ5">
+      <c r="IJ5" s="2">
         <v>0.92045999999999994</v>
       </c>
-      <c r="IK5">
+      <c r="IK5" s="2">
         <v>0.25864999999999999</v>
       </c>
-      <c r="IL5">
+      <c r="IL5" s="2">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="IM5">
+      <c r="IM5" s="2">
         <v>4.6210000000000001E-2</v>
       </c>
-      <c r="IN5">
+      <c r="IN5" s="2">
         <v>1.7670000000000002E-2</v>
       </c>
-      <c r="IO5">
+      <c r="IO5" s="2">
         <v>1.0970000000000001E-2</v>
       </c>
-      <c r="IP5">
+      <c r="IP5" s="2">
         <v>1.9300000000000001E-3</v>
       </c>
-      <c r="IQ5">
-        <v>0</v>
-      </c>
-      <c r="IR5">
+      <c r="IQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="IR5" s="2">
         <v>0.62916000000000005</v>
       </c>
-      <c r="IS5">
+      <c r="IS5" s="2">
         <v>0.33402999999999999</v>
       </c>
-      <c r="IT5">
+      <c r="IT5" s="2">
         <v>0.78283000000000003</v>
       </c>
-      <c r="IU5">
+      <c r="IU5" s="2">
         <v>1.6279999999999999E-2</v>
       </c>
-      <c r="IV5">
+      <c r="IV5" s="2">
         <v>0.35002</v>
       </c>
-      <c r="IW5">
+      <c r="IW5" s="2">
         <v>0.23602000000000001</v>
       </c>
-      <c r="IX5">
+      <c r="IX5" s="2">
         <v>0.49819000000000002</v>
       </c>
-      <c r="IY5">
+      <c r="IY5" s="2">
         <v>0.11082</v>
       </c>
-      <c r="IZ5">
+      <c r="IZ5" s="2">
         <v>0.46432000000000001</v>
       </c>
-      <c r="JA5" s="1">
+      <c r="JA5" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="JB5">
-        <v>0</v>
-      </c>
-      <c r="JC5">
+      <c r="JB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="JC5" s="2">
         <v>0.16700000000000001</v>
       </c>
-      <c r="JD5">
+      <c r="JD5" s="2">
         <v>0.86939</v>
       </c>
-      <c r="JE5">
+      <c r="JE5" s="2">
         <v>1.89E-3</v>
       </c>
-      <c r="JF5">
+      <c r="JF5" s="2">
         <v>0.99983</v>
       </c>
-      <c r="JG5">
+      <c r="JG5" s="2">
         <v>0.40611999999999998</v>
       </c>
-      <c r="JH5">
+      <c r="JH5" s="2">
         <v>0.68394999999999995</v>
       </c>
-      <c r="JI5">
+      <c r="JI5" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="JJ5">
+      <c r="JJ5" s="2">
         <v>4.3279999999999999E-2</v>
       </c>
-      <c r="JK5">
+      <c r="JK5" s="2">
         <v>0.34670000000000001</v>
       </c>
-      <c r="JL5">
+      <c r="JL5" s="2">
         <v>3.6700000000000001E-3</v>
       </c>
-      <c r="JM5">
+      <c r="JM5" s="2">
         <v>2.002E-2</v>
       </c>
-      <c r="JN5">
+      <c r="JN5" s="2">
         <v>0.1066</v>
       </c>
-      <c r="JO5">
+      <c r="JO5" s="2">
         <v>0.85353999999999997</v>
       </c>
-      <c r="JP5">
+      <c r="JP5" s="2">
         <v>1.5010000000000001E-2</v>
       </c>
-      <c r="JQ5">
+      <c r="JQ5" s="2">
         <v>0.92913000000000001</v>
       </c>
-      <c r="JR5">
+      <c r="JR5" s="2">
         <v>0.57125000000000004</v>
       </c>
-      <c r="JS5">
+      <c r="JS5" s="2">
         <v>0.83140000000000003</v>
       </c>
-      <c r="JT5">
+      <c r="JT5" s="2">
         <v>0.11529</v>
       </c>
-      <c r="JU5">
+      <c r="JU5" s="2">
         <v>0.81176000000000004</v>
       </c>
-      <c r="JV5">
+      <c r="JV5" s="2">
         <v>0.19575000000000001</v>
       </c>
     </row>
@@ -5496,7 +5599,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D6">
         <v>1.0656510797200001</v>
@@ -6344,7 +6447,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D7">
         <v>1.0669900021400001</v>
@@ -7192,7 +7295,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D8">
         <v>1.0652848966499999</v>
@@ -8040,7 +8143,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D9">
         <v>1.0673489861300001</v>
@@ -8888,7 +8991,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D10">
         <v>1.0658719479000001</v>
@@ -9736,7 +9839,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D11">
         <v>0.96972974547299995</v>
@@ -10584,7 +10687,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D12">
         <v>1.0668066710199999</v>
@@ -11432,7 +11535,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D13">
         <v>0.98736041574599998</v>
@@ -12280,7 +12383,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D14">
         <v>1.0666130200799999</v>
@@ -13128,7 +13231,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D15">
         <v>1.14389476505</v>
@@ -13976,7 +14079,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="D16">
         <v>1.1436694387999999</v>
@@ -14816,9 +14919,146 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
